--- a/data_year/zb/建筑业/建筑业企业签订合同和承包工程完成情况.xlsx
+++ b/data_year/zb/建筑业/建筑业企业签订合同和承包工程完成情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,470 +473,358 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160570000</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>622450000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>39028187</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26996281</v>
+      </c>
       <c r="E2" t="n">
-        <v>301430000</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>1103590000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>948279432</v>
+      </c>
       <c r="G2" t="n">
-        <v>461990000</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>1726040000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>921283151</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195876587.7</v>
+        <v>813230005</v>
       </c>
       <c r="C3" t="n">
-        <v>13802209.2</v>
+        <v>43975984.8</v>
       </c>
       <c r="D3" t="n">
-        <v>9615039</v>
+        <v>33344154.5</v>
       </c>
       <c r="E3" t="n">
-        <v>363590176.4</v>
+        <v>1287943536</v>
       </c>
       <c r="F3" t="n">
-        <v>341333798.2</v>
+        <v>1154001376.4</v>
       </c>
       <c r="G3" t="n">
-        <v>559466764.1</v>
+        <v>2101173541</v>
       </c>
       <c r="H3" t="n">
-        <v>331718759.2</v>
+        <v>1120657221.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244281113.2</v>
+        <v>1005546475</v>
       </c>
       <c r="C4" t="n">
-        <v>17027079.2</v>
+        <v>50723388.2</v>
       </c>
       <c r="D4" t="n">
-        <v>11438771.9</v>
+        <v>35812065.6</v>
       </c>
       <c r="E4" t="n">
-        <v>427658633.4</v>
+        <v>1467848686</v>
       </c>
       <c r="F4" t="n">
-        <v>409983272.6</v>
+        <v>1357267257.5</v>
       </c>
       <c r="G4" t="n">
-        <v>671939746.6</v>
+        <v>2473395161</v>
       </c>
       <c r="H4" t="n">
-        <v>398544500.7</v>
+        <v>1321455191.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299176474.6</v>
+        <v>1144658872.8</v>
       </c>
       <c r="C5" t="n">
-        <v>20163198.2</v>
+        <v>56345035.2</v>
       </c>
       <c r="D5" t="n">
-        <v>13372409.7</v>
+        <v>40223657.9</v>
       </c>
       <c r="E5" t="n">
-        <v>534946558.7</v>
+        <v>1749573708</v>
       </c>
       <c r="F5" t="n">
-        <v>503646353.4</v>
+        <v>1577008128.8</v>
       </c>
       <c r="G5" t="n">
-        <v>834123033.3</v>
+        <v>2894232580.8</v>
       </c>
       <c r="H5" t="n">
-        <v>490273943.7</v>
+        <v>1536784470.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378724529.4</v>
+        <v>1388587459</v>
       </c>
       <c r="C6" t="n">
-        <v>25496680.6</v>
+        <v>65322058</v>
       </c>
       <c r="D6" t="n">
-        <v>16672167.3</v>
+        <v>48643203.7</v>
       </c>
       <c r="E6" t="n">
-        <v>663688322.8</v>
+        <v>1846273648</v>
       </c>
       <c r="F6" t="n">
-        <v>611543547.5</v>
+        <v>1750457057.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1042412852.2</v>
+        <v>3234861107</v>
       </c>
       <c r="H6" t="n">
-        <v>594871380.2</v>
+        <v>1701813853.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482810000</v>
+        <v>1534972849</v>
       </c>
       <c r="C7" t="n">
-        <v>31911669.5</v>
+        <v>65086461.8</v>
       </c>
       <c r="D7" t="n">
-        <v>22628769.6</v>
+        <v>44985645.6</v>
       </c>
       <c r="E7" t="n">
-        <v>852480000</v>
+        <v>1843385837</v>
       </c>
       <c r="F7" t="n">
-        <v>758794516.5</v>
+        <v>1787473919.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1335290000</v>
+        <v>3378358687</v>
       </c>
       <c r="H7" t="n">
-        <v>736165746.9</v>
+        <v>1742488273.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>622450000</v>
+        <v>1606615203.6</v>
       </c>
       <c r="C8" t="n">
-        <v>39028187</v>
+        <v>75261311.40000001</v>
       </c>
       <c r="D8" t="n">
-        <v>26996281</v>
+        <v>51888995.8</v>
       </c>
       <c r="E8" t="n">
-        <v>1103590000</v>
+        <v>2114967984.8</v>
       </c>
       <c r="F8" t="n">
-        <v>948279432</v>
+        <v>1912295458</v>
       </c>
       <c r="G8" t="n">
-        <v>1726040000</v>
+        <v>3721583188.4</v>
       </c>
       <c r="H8" t="n">
-        <v>921283151</v>
+        <v>1860406462.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>813230005</v>
+        <v>1848416542.9</v>
       </c>
       <c r="C9" t="n">
-        <v>43975984.8</v>
+        <v>88068642</v>
       </c>
       <c r="D9" t="n">
-        <v>33344154.5</v>
+        <v>56113271.7</v>
       </c>
       <c r="E9" t="n">
-        <v>1287943536</v>
+        <v>2546195846.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1154001376.4</v>
+        <v>2107480219.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2101173541</v>
+        <v>4394612389.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1120657221.9</v>
+        <v>2051366947.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1005546475</v>
+        <v>2199156000</v>
       </c>
       <c r="C10" t="n">
-        <v>50723388.2</v>
+        <v>109998296.9</v>
       </c>
       <c r="D10" t="n">
-        <v>35812065.6</v>
+        <v>70375021.90000001</v>
       </c>
       <c r="E10" t="n">
-        <v>1467848686</v>
+        <v>2679284100</v>
       </c>
       <c r="F10" t="n">
-        <v>1357267257.5</v>
+        <v>2311232002.9</v>
       </c>
       <c r="G10" t="n">
-        <v>2473395161</v>
+        <v>4878440100</v>
       </c>
       <c r="H10" t="n">
-        <v>1321455191.9</v>
+        <v>2240856981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1144658872.8</v>
+        <v>2558024972</v>
       </c>
       <c r="C11" t="n">
-        <v>56345035.2</v>
+        <v>122592581.1</v>
       </c>
       <c r="D11" t="n">
-        <v>40223657.9</v>
+        <v>86951610.2</v>
       </c>
       <c r="E11" t="n">
-        <v>1749573708</v>
+        <v>2892322800</v>
       </c>
       <c r="F11" t="n">
-        <v>1577008128.8</v>
+        <v>2448791736.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2894232580.8</v>
+        <v>5450347700</v>
       </c>
       <c r="H11" t="n">
-        <v>1536784470.9</v>
+        <v>2361840126.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1388587459</v>
+        <v>2704026097.1</v>
       </c>
       <c r="C12" t="n">
-        <v>65322058</v>
+        <v>147483728.8</v>
       </c>
       <c r="D12" t="n">
-        <v>48643203.7</v>
+        <v>99064692.3</v>
       </c>
       <c r="E12" t="n">
-        <v>1846273648</v>
+        <v>3251357619.9</v>
       </c>
       <c r="F12" t="n">
-        <v>1750457057.4</v>
+        <v>2591054892.1</v>
       </c>
       <c r="G12" t="n">
-        <v>3234861107</v>
+        <v>5955383717</v>
       </c>
       <c r="H12" t="n">
-        <v>1701813853.7</v>
+        <v>2491990199.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1534972849</v>
+        <v>3123272991.8</v>
       </c>
       <c r="C13" t="n">
-        <v>65086461.8</v>
+        <v>194632661.3</v>
       </c>
       <c r="D13" t="n">
-        <v>44985645.6</v>
+        <v>123451527.4</v>
       </c>
       <c r="E13" t="n">
-        <v>1843385837</v>
+        <v>3445591950.9</v>
       </c>
       <c r="F13" t="n">
-        <v>1787473919.5</v>
+        <v>2859601884.7</v>
       </c>
       <c r="G13" t="n">
-        <v>3378358687</v>
+        <v>6568864942.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1742488273.9</v>
+        <v>2736150357.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1606615203.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>75261311.40000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>51888995.8</v>
-      </c>
+        <v>3491933383.6</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>2114967984.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1912295458</v>
-      </c>
+        <v>3664813494.7</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>3721583188.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1860406462.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1848416542.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>88068642</v>
-      </c>
-      <c r="D15" t="n">
-        <v>56113271.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2546195846.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2107480219.6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4394612389.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2051366947.9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2199156000</v>
-      </c>
-      <c r="C16" t="n">
-        <v>109998296.9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>70375021.90000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2679284100</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2311232002.9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4878440100</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2240856981</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2558024972</v>
-      </c>
-      <c r="C17" t="n">
-        <v>122592581.1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>86951610.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2892322800</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2448791736.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5450347700</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2361840126.2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2704026097.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>147483728.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>99064692.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3251357619.9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2591054892.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5955383717</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2491990199.8</v>
-      </c>
+        <v>7156746878.3</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
